--- a/data/trans_bre/P23_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P23_R-Provincia-trans_bre.xlsx
@@ -541,22 +541,22 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-10,51</t>
+          <t>-13,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-31,79%</t>
+          <t>-33,23%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-10,46%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,86; -2,8</t>
+          <t>-22,09; -5,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 4,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-48,8; -9,6</t>
+          <t>-48,64; -15,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-32,61; 23,76</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-12,64</t>
+          <t>-15,37</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,71</t>
+          <t>-12,29</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-32,68%</t>
+          <t>-39,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-25,25%</t>
+          <t>-29,87%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,4; -6,75</t>
+          <t>-21,14; -9,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,58; -0,82</t>
+          <t>-18,35; -5,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-44,24; -19,37</t>
+          <t>-50,46; -25,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-44,04; -4,46</t>
+          <t>-42,41; -15,52</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,59</t>
+          <t>-18,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,47</t>
+          <t>-13,49</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-20,03%</t>
+          <t>-38,99%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-24,4%</t>
+          <t>-34,41%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 1,4</t>
+          <t>-25,82; -10,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,0; -0,39</t>
+          <t>-20,09; -6,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-40,22; 5,15</t>
+          <t>-50,83; -25,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-42,12; -1,91</t>
+          <t>-48,34; -18,63</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-10,58</t>
+          <t>-19,21</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,53</t>
+          <t>-10,28</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-29,94%</t>
+          <t>-40,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-27,85%</t>
+          <t>-25,6%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,87; -2,39</t>
+          <t>-26,4; -12,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,98; 0,68</t>
+          <t>-15,61; -4,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,29; -7,56</t>
+          <t>-52,1; -28,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-49,59; 5,4</t>
+          <t>-36,36; -12,3</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-11,9</t>
+          <t>-12,81</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,69</t>
+          <t>-13,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-31,46%</t>
+          <t>-30,89%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-31,68%</t>
+          <t>-30,68%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-20,26; -2,57</t>
+          <t>-22,6; -2,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,53; -0,57</t>
+          <t>-23,73; -3,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-48,31; -7,25</t>
+          <t>-48,65; -8,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-52,61; -3,95</t>
+          <t>-48,67; -9,33</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-8,24</t>
+          <t>-22,91</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,83</t>
+          <t>-6,68</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-25,7%</t>
+          <t>-49,5%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-31,04%</t>
+          <t>-21,86%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,61; 0,06</t>
+          <t>-31,0; -15,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,54; -1,29</t>
+          <t>-14,57; 0,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-42,89; 1,11</t>
+          <t>-61,53; -35,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-46,95; -5,61</t>
+          <t>-41,83; 1,32</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,87</t>
+          <t>-12,92</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-5,54</t>
+          <t>-14,24</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-21,27%</t>
+          <t>-33,83%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-24,44%</t>
+          <t>-33,67%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,09; -1,27</t>
+          <t>-18,16; -7,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,06; -0,03</t>
+          <t>-19,35; -8,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-35,83; -4,61</t>
+          <t>-44,24; -21,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-51,39; -1,38</t>
+          <t>-42,83; -21,81</t>
         </is>
       </c>
     </row>
@@ -1001,22 +1001,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-5,32</t>
+          <t>-18,9</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-9,71</t>
+          <t>-12,68</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-17,69%</t>
+          <t>-44,27%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-38,67%</t>
+          <t>-33,32%</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1029,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,18; -0,71</t>
+          <t>-23,41; -14,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,05; -4,11</t>
+          <t>-17,72; -8,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-31,56; -2,53</t>
+          <t>-52,18; -35,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-50,48; -21,32</t>
+          <t>-43,46; -21,84</t>
         </is>
       </c>
     </row>
@@ -1061,22 +1061,22 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-8,19</t>
+          <t>-16,74</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-6,66</t>
+          <t>-12,1</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-25,49%</t>
+          <t>-39,59%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-28,59%</t>
+          <t>-30,6%</t>
         </is>
       </c>
     </row>
@@ -1089,22 +1089,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,43; -6,06</t>
+          <t>-19,2; -14,72</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,09; -4,24</t>
+          <t>-14,71; -9,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-31,27; -19,36</t>
+          <t>-44,14; -35,64</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-37,29; -19,58</t>
+          <t>-35,64; -25,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P23_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P23_R-Provincia-trans_bre.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,09; -5,99</t>
+          <t>-22,64; -5,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-48,64; -15,81</t>
+          <t>-49,57; -15,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,14; -9,23</t>
+          <t>-21,06; -9,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,35; -5,91</t>
+          <t>-18,22; -5,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-50,46; -25,56</t>
+          <t>-49,78; -25,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-42,41; -15,52</t>
+          <t>-41,47; -16,03</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-25,82; -10,85</t>
+          <t>-25,73; -11,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,09; -6,57</t>
+          <t>-20,81; -5,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-50,83; -25,29</t>
+          <t>-50,78; -25,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-48,34; -18,63</t>
+          <t>-48,01; -16,02</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,4; -12,78</t>
+          <t>-26,18; -12,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,61; -4,62</t>
+          <t>-15,32; -4,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-52,1; -28,73</t>
+          <t>-50,83; -28,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,36; -12,3</t>
+          <t>-36,0; -11,57</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,6; -2,81</t>
+          <t>-21,87; -2,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-23,73; -3,89</t>
+          <t>-22,14; -3,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-48,65; -8,11</t>
+          <t>-48,37; -5,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-48,67; -9,33</t>
+          <t>-47,0; -8,72</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,0; -15,04</t>
+          <t>-31,08; -14,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 0,4</t>
+          <t>-14,39; 1,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-61,53; -35,71</t>
+          <t>-61,41; -34,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-41,83; 1,32</t>
+          <t>-41,53; 5,2</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-18,16; -7,46</t>
+          <t>-18,32; -7,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-19,35; -8,75</t>
+          <t>-19,8; -8,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-44,24; -21,11</t>
+          <t>-44,77; -21,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-42,83; -21,81</t>
+          <t>-43,53; -22,24</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1029,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-23,41; -14,13</t>
+          <t>-23,63; -13,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,72; -8,09</t>
+          <t>-17,7; -7,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-52,18; -35,15</t>
+          <t>-52,29; -34,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-43,46; -21,84</t>
+          <t>-43,32; -21,4</t>
         </is>
       </c>
     </row>
@@ -1089,22 +1089,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-19,2; -14,72</t>
+          <t>-19,23; -14,65</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,71; -9,95</t>
+          <t>-14,5; -9,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-44,14; -35,64</t>
+          <t>-43,99; -35,45</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-35,64; -25,81</t>
+          <t>-35,45; -25,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P23_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P23_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,64; -5,76</t>
+          <t>-21,99; -5,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-49,57; -15,65</t>
+          <t>-47,91; -13,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,06; -9,34</t>
+          <t>-21,6; -9,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,22; -5,82</t>
+          <t>-18,56; -6,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-49,78; -25,8</t>
+          <t>-50,36; -26,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-41,47; -16,03</t>
+          <t>-41,58; -16,18</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-25,73; -11,0</t>
+          <t>-26,47; -11,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,81; -5,87</t>
+          <t>-20,97; -5,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-50,78; -25,33</t>
+          <t>-52,14; -25,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-48,01; -16,02</t>
+          <t>-49,62; -16,77</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,18; -12,33</t>
+          <t>-25,75; -12,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,32; -4,32</t>
+          <t>-15,79; -5,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-50,83; -28,39</t>
+          <t>-50,57; -27,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,0; -11,57</t>
+          <t>-36,59; -13,42</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,87; -2,06</t>
+          <t>-22,16; -3,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-22,14; -3,1</t>
+          <t>-22,26; -3,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-48,37; -5,36</t>
+          <t>-47,82; -7,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-47,0; -8,72</t>
+          <t>-46,93; -10,73</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,08; -14,59</t>
+          <t>-30,69; -14,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 1,28</t>
+          <t>-15,14; -0,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-61,41; -34,6</t>
+          <t>-61,73; -35,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-41,53; 5,2</t>
+          <t>-42,46; -0,18</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-18,32; -7,66</t>
+          <t>-18,44; -7,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-19,8; -8,78</t>
+          <t>-19,59; -9,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-44,77; -21,53</t>
+          <t>-44,38; -20,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-43,53; -22,24</t>
+          <t>-43,03; -22,33</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1029,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-23,63; -13,82</t>
+          <t>-22,99; -13,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,7; -7,67</t>
+          <t>-17,83; -7,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-52,29; -34,52</t>
+          <t>-51,95; -34,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-43,32; -21,4</t>
+          <t>-43,44; -21,62</t>
         </is>
       </c>
     </row>
@@ -1089,22 +1089,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-19,23; -14,65</t>
+          <t>-18,96; -14,68</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,5; -9,97</t>
+          <t>-14,4; -9,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-43,99; -35,45</t>
+          <t>-43,67; -35,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-35,45; -25,49</t>
+          <t>-35,29; -25,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P23_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P23_R-Provincia-trans_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,12 +521,14 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente</t>
+          <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -529,12 +538,14 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +562,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -567,6 +588,8 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -586,17 +609,27 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-12,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>-11,2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-33,23%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-26,37%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-30,5%</t>
         </is>
       </c>
     </row>
@@ -614,17 +647,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,36; -3,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>-18,54; -3,12</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>-47,91; -13,99</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-40,88; -8,61</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-45,9; -9,21</t>
         </is>
       </c>
     </row>
@@ -651,12 +694,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>-14,65</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-39,5%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-29,87%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-34,99%</t>
         </is>
       </c>
     </row>
@@ -679,12 +732,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>-20,32; -8,88</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>-50,36; -26,22</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>-41,58; -16,18</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-45,37; -22,73</t>
         </is>
       </c>
     </row>
@@ -711,12 +774,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>-6,03</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>-38,99%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-34,41%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-19,95%</t>
         </is>
       </c>
     </row>
@@ -739,12 +812,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>-13,13; 1,3</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>-52,14; -25,82</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>-49,62; -16,77</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-39,43; 5,2</t>
         </is>
       </c>
     </row>
@@ -766,17 +849,27 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,28</t>
+          <t>-8,54</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>-10,26</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-40,41%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-25,6%</t>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-24,21%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-26,7%</t>
         </is>
       </c>
     </row>
@@ -794,17 +887,27 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,79; -5,19</t>
+          <t>-15,08; -0,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>-16,69; -2,42</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>-50,57; -27,45</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-36,59; -13,42</t>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-38,82; 0,02</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-40,1; -6,28</t>
         </is>
       </c>
     </row>
@@ -831,12 +934,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>-14,75</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-30,89%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-30,68%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-36,27%</t>
         </is>
       </c>
     </row>
@@ -859,12 +972,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-23,43; -5,26</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>-47,82; -7,5</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>-46,93; -10,73</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-51,64; -14,85</t>
         </is>
       </c>
     </row>
@@ -891,12 +1014,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>-7,15</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-49,5%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-21,86%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-21,09%</t>
         </is>
       </c>
     </row>
@@ -919,12 +1052,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-15,09; 1,15</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>-61,73; -35,86</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>-42,46; -0,18</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-39,68; 3,96</t>
         </is>
       </c>
     </row>
@@ -951,12 +1094,22 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>-5,47</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>-33,83%</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-33,67%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-17,75%</t>
         </is>
       </c>
     </row>
@@ -979,12 +1132,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>-10,92; -0,71</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>-44,38; -20,48</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>-43,03; -22,33</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-31,1; -2,11</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1174,22 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
+          <t>-6,94</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>-44,27%</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-33,32%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-21,12%</t>
         </is>
       </c>
     </row>
@@ -1039,12 +1212,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
+          <t>-11,73; -1,98</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>-51,95; -34,21</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-43,44; -21,62</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>-33,25; -6,39</t>
         </is>
       </c>
     </row>
@@ -1071,12 +1254,22 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
+          <t>-8,95</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>-39,59%</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-30,6%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-25,52%</t>
         </is>
       </c>
     </row>
@@ -1099,12 +1292,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
+          <t>-11,33; -6,78</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
           <t>-43,67; -35,4</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>-35,29; -25,35</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-31,15; -19,86</t>
         </is>
       </c>
     </row>
@@ -1117,11 +1320,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>

--- a/data/trans_bre/P23_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P23_R-Provincia-trans_bre.xlsx
@@ -528,7 +528,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016)</t>
+          <t>Población que fuma diariamente tabaco y/o marihuana/hachís</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,99; -5,43</t>
+          <t>-21,82; -5,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,36; -3,74</t>
+          <t>-20,98; -3,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,54; -3,12</t>
+          <t>-19,13; -3,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-47,91; -13,99</t>
+          <t>-48,26; -13,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-40,88; -8,61</t>
+          <t>-41,14; -8,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-45,9; -9,21</t>
+          <t>-46,54; -10,11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,6; -9,63</t>
+          <t>-21,6; -9,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,56; -6,19</t>
+          <t>-17,79; -6,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,32; -8,88</t>
+          <t>-20,74; -8,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-50,36; -26,22</t>
+          <t>-51,45; -26,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,58; -16,18</t>
+          <t>-40,9; -15,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,37; -22,73</t>
+          <t>-46,4; -21,56</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-26,47; -11,15</t>
+          <t>-25,31; -10,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,97; -5,82</t>
+          <t>-20,02; -5,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 1,3</t>
+          <t>-12,35; 0,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-52,14; -25,82</t>
+          <t>-50,26; -25,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-49,62; -16,77</t>
+          <t>-47,54; -15,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-39,43; 5,2</t>
+          <t>-36,73; 3,67</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,75; -12,28</t>
+          <t>-25,7; -12,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,08; -0,11</t>
+          <t>-15,21; -1,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,69; -2,42</t>
+          <t>-16,9; -2,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-50,57; -27,45</t>
+          <t>-51,15; -27,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,82; 0,02</t>
+          <t>-38,72; -4,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,1; -6,28</t>
+          <t>-41,1; -7,82</t>
         </is>
       </c>
     </row>
@@ -962,39 +962,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,16; -3,03</t>
+          <t>-21,81; -3,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-22,26; -3,97</t>
+          <t>-23,24; -3,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-23,43; -5,26</t>
+          <t>-23,24; -5,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-47,82; -7,5</t>
+          <t>-48,39; -9,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-46,93; -10,73</t>
+          <t>-47,47; -8,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-51,64; -14,85</t>
+          <t>-51,33; -15,51</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-30,69; -14,81</t>
+          <t>-30,28; -15,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-15,14; -0,07</t>
+          <t>-14,43; 0,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 1,15</t>
+          <t>-14,72; 0,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-61,73; -35,86</t>
+          <t>-60,46; -35,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,46; -0,18</t>
+          <t>-40,92; 4,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,68; 3,96</t>
+          <t>-39,78; 2,76</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-18,44; -7,17</t>
+          <t>-18,39; -7,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-19,59; -9,04</t>
+          <t>-19,48; -8,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,92; -0,71</t>
+          <t>-10,68; -0,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-44,38; -20,48</t>
+          <t>-44,75; -22,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-43,03; -22,33</t>
+          <t>-42,98; -22,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-31,1; -2,11</t>
+          <t>-31,49; -0,91</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,99; -13,61</t>
+          <t>-23,58; -13,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,83; -7,94</t>
+          <t>-17,31; -7,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,73; -1,98</t>
+          <t>-11,26; -2,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-51,95; -34,21</t>
+          <t>-52,67; -33,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-43,44; -21,62</t>
+          <t>-42,71; -21,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-33,25; -6,39</t>
+          <t>-32,5; -7,05</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-18,96; -14,68</t>
+          <t>-18,98; -14,32</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,4; -9,77</t>
+          <t>-14,31; -9,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,33; -6,78</t>
+          <t>-11,0; -6,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-43,67; -35,4</t>
+          <t>-43,56; -34,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-35,29; -25,35</t>
+          <t>-35,21; -25,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-31,15; -19,86</t>
+          <t>-30,39; -19,66</t>
         </is>
       </c>
     </row>
